--- a/iRss.xlsx
+++ b/iRss.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Rss源表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,151 +170,187 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rss_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSS类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章数目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章网址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stared</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否标记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_images</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed数目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feed标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feed表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>content</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>charset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rss_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSS类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>article_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章数目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>publish_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章网址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>readed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已读</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stared</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否标记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>images</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_images</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http_url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feed_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>feed数目</t>
+    <t>unread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -891,24 +923,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="15.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
+    <col min="11" max="11" width="9.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" customWidth="1"/>
@@ -916,9 +950,9 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -926,9 +960,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -936,7 +970,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -956,10 +990,10 @@
         <v>21</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -979,10 +1013,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -1002,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1013,7 +1047,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1029,9 +1063,9 @@
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1045,130 +1079,139 @@
       <c r="K10" s="6"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="J11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="K11" s="9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>26</v>
+      <c r="B12" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="J12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="L12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="K13" s="12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1180,7 +1223,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1195,7 +1238,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -1210,134 +1253,152 @@
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
+      <c r="B18" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="J18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>24</v>
+      <c r="B19" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="J19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="I20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
@@ -1351,18 +1412,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
